--- a/members.xlsx
+++ b/members.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\MATLAB\321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\School\321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2EF34-B2F4-464B-8F4A-A633F0A6A7F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE9A1B-87EB-442C-89BA-AFCB8E731F8C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{FEBF1A75-3F44-4782-8DF6-0804AEBA7559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="5640" xr2:uid="{FEBF1A75-3F44-4782-8DF6-0804AEBA7559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,15 +405,16 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,66 +445,68 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>29000000</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>25*12</f>
+        <v>300</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>53.130099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>29000000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <f>20*12</f>
+        <v>240</v>
       </c>
       <c r="G3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>29000000</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <f>SQRT(2)</f>
-        <v>1.4142135623730951</v>
+        <f>15*12</f>
+        <v>180</v>
       </c>
       <c r="G4">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
